--- a/lin_R1_by_R2 (100 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (100 by 1)1000.xlsx
@@ -15,7 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>freq_to_store</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,6 +372,158 @@
         <v>-0.7749666692274055</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0055595393982673</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.2659244572205166</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.5937044686066466</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.006355054418827</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.5258513630895303</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.1798584674083457</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.003204630529221</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.039736037985317</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.344651766954569</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.987443338403872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.055595393982673</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12.659244572205166</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15.937044686066464</v>
+      </c>
+      <c r="N3" t="n">
+        <v>20.06355054418827</v>
+      </c>
+      <c r="O3" t="n">
+        <v>25.258513630895305</v>
+      </c>
+      <c r="P3" t="n">
+        <v>31.798584674083457</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>40.03204630529221</v>
+      </c>
+      <c r="R3" t="n">
+        <v>50.39736037985317</v>
+      </c>
+      <c r="S3" t="n">
+        <v>63.44651766954569</v>
+      </c>
+      <c r="T3" t="n">
+        <v>79.87443338403872</v>
+      </c>
+      <c r="U3" t="n">
+        <v>100.55595393982672</v>
+      </c>
+      <c r="V3" t="n">
+        <v>126.59244572205166</v>
+      </c>
+      <c r="W3" t="n">
+        <v>159.37044686066466</v>
+      </c>
+      <c r="X3" t="n">
+        <v>200.63550544188269</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>252.58513630895305</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>317.9858467408346</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>400.3204630529221</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>503.97360379853166</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>634.4651766954569</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>798.7443338403872</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1005.5595393982672</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1265.9244572205166</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1593.7044686066465</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2006.355054418827</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2525.8513630895304</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3179.8584674083454</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4003.204630529221</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5039.736037985316</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>6344.651766954569</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>7987.443338403872</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10055.595393982672</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>12659.244572205167</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>15937.044686066465</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>20063.55054418827</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>25258.513630895304</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>31798.584674083457</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>40032.046305292206</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>50397.36037985316</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>63446.51766954569</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>79874.43338403871</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (100 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (100 by 1)1000.xlsx
@@ -841,6 +841,158 @@
         <v>-0.7749716870711808</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0055595393982673</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.2659244572205166</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.5937044686066466</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.006355054418827</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.5258513630895303</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.1798584674083457</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.003204630529221</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.039736037985317</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.344651766954569</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.987443338403872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.055595393982673</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12.659244572205166</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15.937044686066464</v>
+      </c>
+      <c r="N3" t="n">
+        <v>20.06355054418827</v>
+      </c>
+      <c r="O3" t="n">
+        <v>25.258513630895305</v>
+      </c>
+      <c r="P3" t="n">
+        <v>31.798584674083457</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>40.03204630529221</v>
+      </c>
+      <c r="R3" t="n">
+        <v>50.39736037985317</v>
+      </c>
+      <c r="S3" t="n">
+        <v>63.44651766954569</v>
+      </c>
+      <c r="T3" t="n">
+        <v>79.87443338403872</v>
+      </c>
+      <c r="U3" t="n">
+        <v>100.55595393982672</v>
+      </c>
+      <c r="V3" t="n">
+        <v>126.59244572205166</v>
+      </c>
+      <c r="W3" t="n">
+        <v>159.37044686066466</v>
+      </c>
+      <c r="X3" t="n">
+        <v>200.63550544188269</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>252.58513630895305</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>317.9858467408346</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>400.3204630529221</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>503.97360379853166</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>634.4651766954569</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>798.7443338403872</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1005.5595393982672</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1265.9244572205166</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1593.7044686066465</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2006.355054418827</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2525.8513630895304</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3179.8584674083454</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4003.204630529221</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5039.736037985316</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>6344.651766954569</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>7987.443338403872</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10055.595393982672</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>12659.244572205167</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>15937.044686066465</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>20063.55054418827</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>25258.513630895304</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>31798.584674083457</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>40032.046305292206</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>50397.36037985316</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>63446.51766954569</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>79874.43338403871</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1156,6 +1308,158 @@
       </c>
       <c r="AX2" t="n">
         <v>-0.7749724039552559</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0055595393982673</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.2659244572205166</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.5937044686066466</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.006355054418827</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.5258513630895303</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.1798584674083457</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.003204630529221</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.039736037985317</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.344651766954569</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.987443338403872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.055595393982673</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12.659244572205166</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15.937044686066464</v>
+      </c>
+      <c r="N3" t="n">
+        <v>20.06355054418827</v>
+      </c>
+      <c r="O3" t="n">
+        <v>25.258513630895305</v>
+      </c>
+      <c r="P3" t="n">
+        <v>31.798584674083457</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>40.03204630529221</v>
+      </c>
+      <c r="R3" t="n">
+        <v>50.39736037985317</v>
+      </c>
+      <c r="S3" t="n">
+        <v>63.44651766954569</v>
+      </c>
+      <c r="T3" t="n">
+        <v>79.87443338403872</v>
+      </c>
+      <c r="U3" t="n">
+        <v>100.55595393982672</v>
+      </c>
+      <c r="V3" t="n">
+        <v>126.59244572205166</v>
+      </c>
+      <c r="W3" t="n">
+        <v>159.37044686066466</v>
+      </c>
+      <c r="X3" t="n">
+        <v>200.63550544188269</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>252.58513630895305</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>317.9858467408346</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>400.3204630529221</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>503.97360379853166</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>634.4651766954569</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>798.7443338403872</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1005.5595393982672</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1265.9244572205166</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1593.7044686066465</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2006.355054418827</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2525.8513630895304</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3179.8584674083454</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4003.204630529221</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5039.736037985316</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>6344.651766954569</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>7987.443338403872</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10055.595393982672</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>12659.244572205167</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>15937.044686066465</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>20063.55054418827</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>25258.513630895304</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>31798.584674083457</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>40032.046305292206</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>50397.36037985316</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>63446.51766954569</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>79874.43338403871</v>
       </c>
     </row>
   </sheetData>
@@ -1475,6 +1779,158 @@
         <v>-0.7749666688458032</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0055595393982673</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.2659244572205166</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.5937044686066466</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.006355054418827</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.5258513630895303</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.1798584674083457</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.003204630529221</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.039736037985317</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.344651766954569</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.987443338403872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.055595393982673</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12.659244572205166</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15.937044686066464</v>
+      </c>
+      <c r="N3" t="n">
+        <v>20.06355054418827</v>
+      </c>
+      <c r="O3" t="n">
+        <v>25.258513630895305</v>
+      </c>
+      <c r="P3" t="n">
+        <v>31.798584674083457</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>40.03204630529221</v>
+      </c>
+      <c r="R3" t="n">
+        <v>50.39736037985317</v>
+      </c>
+      <c r="S3" t="n">
+        <v>63.44651766954569</v>
+      </c>
+      <c r="T3" t="n">
+        <v>79.87443338403872</v>
+      </c>
+      <c r="U3" t="n">
+        <v>100.55595393982672</v>
+      </c>
+      <c r="V3" t="n">
+        <v>126.59244572205166</v>
+      </c>
+      <c r="W3" t="n">
+        <v>159.37044686066466</v>
+      </c>
+      <c r="X3" t="n">
+        <v>200.63550544188269</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>252.58513630895305</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>317.9858467408346</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>400.3204630529221</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>503.97360379853166</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>634.4651766954569</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>798.7443338403872</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1005.5595393982672</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1265.9244572205166</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1593.7044686066465</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2006.355054418827</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2525.8513630895304</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3179.8584674083454</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4003.204630529221</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5039.736037985316</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>6344.651766954569</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>7987.443338403872</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10055.595393982672</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>12659.244572205167</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>15937.044686066465</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>20063.55054418827</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>25258.513630895304</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>31798.584674083457</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>40032.046305292206</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>50397.36037985316</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>63446.51766954569</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>79874.43338403871</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (100 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (100 by 1)1000.xlsx
@@ -70,458 +70,836 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>50.15079777666904</v>
+        <v>50.166666666601564</v>
       </c>
       <c r="B1" t="n">
-        <v>50.14152333352925</v>
+        <v>50.166666666563486</v>
       </c>
       <c r="C1" t="n">
-        <v>50.126835147355735</v>
+        <v>50.16666666650313</v>
       </c>
       <c r="D1" t="n">
-        <v>50.103583068819425</v>
+        <v>50.16666666640749</v>
       </c>
       <c r="E1" t="n">
-        <v>50.06679899130362</v>
+        <v>50.16666666625589</v>
       </c>
       <c r="F1" t="n">
-        <v>50.008670296271546</v>
+        <v>50.16666666601563</v>
       </c>
       <c r="G1" t="n">
-        <v>49.916967410377346</v>
+        <v>50.16666666563484</v>
       </c>
       <c r="H1" t="n">
-        <v>49.77268561699712</v>
+        <v>50.166666665031336</v>
       </c>
       <c r="I1" t="n">
-        <v>49.54663235863099</v>
+        <v>50.166666664074846</v>
       </c>
       <c r="J1" t="n">
-        <v>49.194789497106854</v>
+        <v>50.16666666255891</v>
       </c>
       <c r="K1" t="n">
-        <v>48.65273272503894</v>
+        <v>50.16666666015631</v>
       </c>
       <c r="L1" t="n">
-        <v>47.83063280828577</v>
+        <v>50.16666665634844</v>
       </c>
       <c r="M1" t="n">
-        <v>46.61296508553</v>
+        <v>50.16666665031338</v>
       </c>
       <c r="N1" t="n">
-        <v>44.87096460795898</v>
+        <v>50.16666664074845</v>
       </c>
       <c r="O1" t="n">
-        <v>42.4981445097595</v>
+        <v>50.166666625589066</v>
       </c>
       <c r="P1" t="n">
-        <v>39.47127201393247</v>
+        <v>50.16666660156306</v>
       </c>
       <c r="Q1" t="n">
-        <v>35.91219364635458</v>
+        <v>50.166666563484405</v>
       </c>
       <c r="R1" t="n">
-        <v>32.09489995350744</v>
+        <v>50.1666665031338</v>
       </c>
       <c r="S1" t="n">
-        <v>28.35903540625378</v>
+        <v>50.16666640748454</v>
       </c>
       <c r="T1" t="n">
-        <v>24.973613140420113</v>
+        <v>50.16666625589068</v>
       </c>
       <c r="U1" t="n">
-        <v>22.051289359238144</v>
+        <v>50.16666601563061</v>
       </c>
       <c r="V1" t="n">
-        <v>19.56311347500913</v>
+        <v>50.166665634844065</v>
       </c>
       <c r="W1" t="n">
-        <v>17.41541795690439</v>
+        <v>50.16666503133808</v>
       </c>
       <c r="X1" t="n">
-        <v>15.521872038929075</v>
+        <v>50.1666640748456</v>
       </c>
       <c r="Y1" t="n">
-        <v>13.832489098785496</v>
+        <v>50.16666255890729</v>
       </c>
       <c r="Z1" t="n">
-        <v>12.323873424510793</v>
+        <v>50.16666015630727</v>
       </c>
       <c r="AA1" t="n">
-        <v>10.979840265408903</v>
+        <v>50.16665634844359</v>
       </c>
       <c r="AB1" t="n">
-        <v>9.783356127231363</v>
+        <v>50.16665031338818</v>
       </c>
       <c r="AC1" t="n">
-        <v>8.717827944762256</v>
+        <v>50.16664074847453</v>
       </c>
       <c r="AD1" t="n">
-        <v>7.768657333589005</v>
+        <v>50.1666255891195</v>
       </c>
       <c r="AE1" t="n">
-        <v>6.92304670897183</v>
+        <v>50.16660156318981</v>
       </c>
       <c r="AF1" t="n">
-        <v>6.1696324442212696</v>
+        <v>50.16656348472998</v>
       </c>
       <c r="AG1" t="n">
-        <v>5.498314923437803</v>
+        <v>50.166503134620534</v>
       </c>
       <c r="AH1" t="n">
-        <v>4.900116108378124</v>
+        <v>50.16640748660088</v>
       </c>
       <c r="AI1" t="n">
-        <v>4.367049811334904</v>
+        <v>50.16625589585599</v>
       </c>
       <c r="AJ1" t="n">
-        <v>3.8920089779719604</v>
+        <v>50.166015643605846</v>
       </c>
       <c r="AK1" t="n">
-        <v>3.468666772757044</v>
+        <v>50.16563487670798</v>
       </c>
       <c r="AL1" t="n">
-        <v>3.0913894615635527</v>
+        <v>50.16503142007388</v>
       </c>
       <c r="AM1" t="n">
-        <v>2.755159479365602</v>
+        <v>50.16407505155203</v>
       </c>
       <c r="AN1" t="n">
-        <v>2.4555073492719033</v>
+        <v>50.1625594245993</v>
       </c>
       <c r="AO1" t="n">
-        <v>2.188451337347736</v>
+        <v>50.16015760660045</v>
       </c>
       <c r="AP1" t="n">
-        <v>1.9504438979368397</v>
+        <v>50.15635170696579</v>
       </c>
       <c r="AQ1" t="n">
-        <v>1.738324100047823</v>
+        <v>50.15032158387579</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.5492753357843478</v>
+        <v>50.140769055063515</v>
       </c>
       <c r="AS1" t="n">
-        <v>1.3807877030367912</v>
+        <v>50.125640791119416</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.2306245311328317</v>
+        <v>50.101692886247434</v>
       </c>
       <c r="AU1" t="n">
-        <v>1.0967925830316965</v>
+        <v>50.063810128081876</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.9775155232510515</v>
+        <v>50.00395045706461</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.8712102887537863</v>
+        <v>49.909529841519465</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.7764660417960191</v>
+        <v>49.76100434941214</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>49.52838156937705</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>49.166505838503426</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>48.60944963057253</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>47.765656500445225</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>46.518183437961426</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>44.738334320931784</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>42.32292267567376</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>39.25643108599998</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>35.67118789621272</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>31.848968173206114</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>28.128961586828932</v>
+      </c>
+      <c r="BJ1" t="n">
+        <v>24.771689988425138</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>21.879264793575466</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>19.415996198934025</v>
+      </c>
+      <c r="BM1" t="n">
+        <v>17.286877700890194</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>15.407559825356106</v>
+      </c>
+      <c r="BO1" t="n">
+        <v>13.730327966321092</v>
+      </c>
+      <c r="BP1" t="n">
+        <v>12.232768786985286</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>10.89873509496686</v>
+      </c>
+      <c r="BR1" t="n">
+        <v>9.711143092075782</v>
+      </c>
+      <c r="BS1" t="n">
+        <v>8.65350590273494</v>
+      </c>
+      <c r="BT1" t="n">
+        <v>7.711355534065304</v>
+      </c>
+      <c r="BU1" t="n">
+        <v>6.871994424757406</v>
+      </c>
+      <c r="BV1" t="n">
+        <v>6.124144466131663</v>
+      </c>
+      <c r="BW1" t="n">
+        <v>5.457782323015498</v>
+      </c>
+      <c r="BX1" t="n">
+        <v>4.863997367387259</v>
+      </c>
+      <c r="BY1" t="n">
+        <v>4.334863109986663</v>
+      </c>
+      <c r="BZ1" t="n">
+        <v>3.863325451360797</v>
+      </c>
+      <c r="CA1" t="n">
+        <v>3.443104579080167</v>
+      </c>
+      <c r="CB1" t="n">
+        <v>3.0686085498297744</v>
+      </c>
+      <c r="CC1" t="n">
+        <v>2.734856963118182</v>
+      </c>
+      <c r="CD1" t="n">
+        <v>2.4374134087171893</v>
+      </c>
+      <c r="CE1" t="n">
+        <v>2.1723255844755798</v>
+      </c>
+      <c r="CF1" t="n">
+        <v>1.9360721488667112</v>
+      </c>
+      <c r="CG1" t="n">
+        <v>1.725515506612916</v>
+      </c>
+      <c r="CH1" t="n">
+        <v>1.5378598347478716</v>
+      </c>
+      <c r="CI1" t="n">
+        <v>1.3706137466516501</v>
+      </c>
+      <c r="CJ1" t="n">
+        <v>1.2215570672439424</v>
+      </c>
+      <c r="CK1" t="n">
+        <v>1.0887112567499861</v>
+      </c>
+      <c r="CL1" t="n">
+        <v>0.9703130755255864</v>
+      </c>
+      <c r="CM1" t="n">
+        <v>0.8647911300280268</v>
+      </c>
+      <c r="CN1" t="n">
+        <v>0.770744981428432</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-479.64936278494366</v>
+        <v>-7478550.225214249</v>
       </c>
       <c r="B2" t="n">
-        <v>-381.34895534173734</v>
+        <v>-5940423.598713747</v>
       </c>
       <c r="C2" t="n">
-        <v>-303.35646250707254</v>
+        <v>-4718646.190708998</v>
       </c>
       <c r="D2" t="n">
-        <v>-241.51819413518092</v>
+        <v>-3748153.89898989</v>
       </c>
       <c r="E2" t="n">
-        <v>-192.54042932349412</v>
+        <v>-2977264.4701043344</v>
       </c>
       <c r="F2" t="n">
-        <v>-153.81371723952154</v>
+        <v>-2364925.2309016525</v>
       </c>
       <c r="G2" t="n">
-        <v>-123.27333158254538</v>
+        <v>-1878526.8839879674</v>
       </c>
       <c r="H2" t="n">
-        <v>-99.28818121759751</v>
+        <v>-1492166.9437295806</v>
       </c>
       <c r="I2" t="n">
-        <v>-80.5717687118803</v>
+        <v>-1185270.334439083</v>
       </c>
       <c r="J2" t="n">
-        <v>-66.10958804177898</v>
+        <v>-941493.6925676075</v>
       </c>
       <c r="K2" t="n">
-        <v>-55.097697973324046</v>
+        <v>-747855.0229994766</v>
       </c>
       <c r="L2" t="n">
-        <v>-46.88731834801955</v>
+        <v>-594042.3604732062</v>
       </c>
       <c r="M2" t="n">
-        <v>-40.930993637988074</v>
+        <v>-471864.6198285606</v>
       </c>
       <c r="N2" t="n">
-        <v>-36.729200954863416</v>
+        <v>-374815.39085282746</v>
       </c>
       <c r="O2" t="n">
-        <v>-33.78527787628975</v>
+        <v>-297726.448211245</v>
       </c>
       <c r="P2" t="n">
-        <v>-31.59074721979826</v>
+        <v>-236492.5246018974</v>
       </c>
       <c r="Q2" t="n">
-        <v>-29.668232930328575</v>
+        <v>-187852.6903019548</v>
       </c>
       <c r="R2" t="n">
-        <v>-27.66818930416924</v>
+        <v>-149216.69676889208</v>
       </c>
       <c r="S2" t="n">
-        <v>-25.453770937452862</v>
+        <v>-118527.03646021051</v>
       </c>
       <c r="T2" t="n">
-        <v>-23.09185208667708</v>
+        <v>-94149.37305406026</v>
       </c>
       <c r="U2" t="n">
-        <v>-20.74753938112867</v>
+        <v>-74785.50708046446</v>
       </c>
       <c r="V2" t="n">
-        <v>-18.564720072983693</v>
+        <v>-59404.24206563463</v>
       </c>
       <c r="W2" t="n">
-        <v>-16.607006387041675</v>
+        <v>-47186.469559464385</v>
       </c>
       <c r="X2" t="n">
-        <v>-14.868086314047634</v>
+        <v>-37481.54862366723</v>
       </c>
       <c r="Y2" t="n">
-        <v>-13.314310307363607</v>
+        <v>-29772.65682923858</v>
       </c>
       <c r="Z2" t="n">
-        <v>-11.917304744170632</v>
+        <v>-23649.26757750863</v>
       </c>
       <c r="AA2" t="n">
-        <v>-10.660400186980592</v>
+        <v>-18785.288061770254</v>
       </c>
       <c r="AB2" t="n">
-        <v>-9.531613075703937</v>
+        <v>-14921.69363621806</v>
       </c>
       <c r="AC2" t="n">
-        <v>-8.519216894700666</v>
+        <v>-11852.733809020498</v>
       </c>
       <c r="AD2" t="n">
-        <v>-7.611869610387648</v>
+        <v>-9414.975278355574</v>
       </c>
       <c r="AE2" t="n">
-        <v>-6.799189776639289</v>
+        <v>-7478.598513123777</v>
       </c>
       <c r="AF2" t="n">
-        <v>-6.071728603632003</v>
+        <v>-5940.48438952265</v>
       </c>
       <c r="AG2" t="n">
-        <v>-5.420883554008407</v>
+        <v>-4718.722721668485</v>
       </c>
       <c r="AH2" t="n">
-        <v>-4.8388464632071875</v>
+        <v>-3748.250245490928</v>
       </c>
       <c r="AI2" t="n">
-        <v>-4.318547657629076</v>
+        <v>-2977.385762626806</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-3.8535991255486515</v>
+        <v>-2365.077928070958</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.438238916060655</v>
+        <v>-1878.7191162008348</v>
       </c>
       <c r="AL2" t="n">
-        <v>-3.0672776126234647</v>
+        <v>-1492.408945489804</v>
       </c>
       <c r="AM2" t="n">
-        <v>-2.7360475145065126</v>
+        <v>-1185.5749881102663</v>
       </c>
       <c r="AN2" t="n">
-        <v>-2.4403549019966455</v>
+        <v>-941.8772118686788</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.176435575956147</v>
+        <v>-748.3378113831518</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.9409137276759323</v>
+        <v>-594.6500875903882</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.7307640995482534</v>
+        <v>-472.62956840531984</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.5432773314746966</v>
+        <v>-375.77813575293976</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.3760283447101276</v>
+        <v>-298.93793730827326</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.2268475882601617</v>
+        <v>-238.0166329950349</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.0937949585703854</v>
+        <v>-189.76930618684804</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.9751361976928867</v>
+        <v>-151.62535032645604</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.8693215758316536</v>
+        <v>-121.55096629588533</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.7749666692274055</v>
+        <v>-97.93967085459917</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-79.52447383708625</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-65.30615038255691</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-54.492354446110205</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-46.442433786121185</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-40.613595405749805</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-36.50767618467718</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-33.62720595685588</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-31.463703182077708</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-29.54475338102173</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-27.532577975038794</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-25.304947248765902</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-22.93888505469955</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>-20.601341434149646</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-18.431987407640012</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-16.48904482837394</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-14.763085407698975</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>-13.220089917138425</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>-11.832492926997821</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-10.584166452523558</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>-9.463209177979541</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>-8.457892516436065</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>-7.556927546015444</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>-6.7499963669599525</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>-6.02770640376241</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>-5.381507707600274</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-4.8036412673921625</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-4.287082894943451</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>-3.8254864464770275</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>-3.4131283300670265</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>-3.0448541373142577</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>-2.7160280138562842</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>-2.4224851308434</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>-2.1604874379329484</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>-1.926682746549075</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1.718067098910619</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>-1.531950314363261</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>-1.3659245625625878</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1.2178357873761272</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-1.0857577916516636</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-0.9679687879184397</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>-0.8629302211348169</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>-0.7692676748802527</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0055595393982673</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.2659244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.5937044686066466</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.006355054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>2.5258513630895303</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.1798584674083457</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.003204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>5.039736037985317</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>6.344651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>7.987443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>10.055595393982673</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>12.659244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>15.937044686066464</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>20.06355054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>25.258513630895305</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>31.798584674083457</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>40.03204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>50.39736037985317</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>63.44651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>79.87443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>100.55595393982672</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>126.59244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>159.37044686066466</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>200.63550544188269</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>252.58513630895305</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>317.9858467408346</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.3204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>503.97360379853166</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>634.4651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>798.7443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1005.5595393982672</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1265.9244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1593.7044686066465</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2006.355054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>2525.8513630895304</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3179.8584674083454</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4003.204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>5039.736037985316</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>6344.651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>7987.443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>10055.595393982672</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>12659.244572205167</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15937.044686066465</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>20063.55054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>25258.513630895304</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>31798.584674083457</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>40032.046305292206</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>50397.36037985316</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>63446.51766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>79874.43338403871</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -539,458 +917,836 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>50.367525810157744</v>
+        <v>50.16666666753283</v>
       </c>
       <c r="B1" t="n">
-        <v>50.47605096560658</v>
+        <v>50.16666666803944</v>
       </c>
       <c r="C1" t="n">
-        <v>50.63591993540155</v>
+        <v>50.16666666884237</v>
       </c>
       <c r="D1" t="n">
-        <v>50.86236868273185</v>
+        <v>50.166666670114914</v>
       </c>
       <c r="E1" t="n">
-        <v>51.16507041662627</v>
+        <v>50.166666672131775</v>
       </c>
       <c r="F1" t="n">
-        <v>51.537104784866436</v>
+        <v>50.16666667532828</v>
       </c>
       <c r="G1" t="n">
-        <v>51.94196273286211</v>
+        <v>50.1666666803944</v>
       </c>
       <c r="H1" t="n">
-        <v>52.30669218182592</v>
+        <v>50.16666668842365</v>
       </c>
       <c r="I1" t="n">
-        <v>52.528252666163496</v>
+        <v>50.16666670114917</v>
       </c>
       <c r="J1" t="n">
-        <v>52.48820476075761</v>
+        <v>50.16666672131775</v>
       </c>
       <c r="K1" t="n">
-        <v>52.060948942133</v>
+        <v>50.1666667532828</v>
       </c>
       <c r="L1" t="n">
-        <v>51.10909371162778</v>
+        <v>50.16666680394398</v>
       </c>
       <c r="M1" t="n">
-        <v>49.47962239158349</v>
+        <v>50.16666688423655</v>
       </c>
       <c r="N1" t="n">
-        <v>47.02944751494911</v>
+        <v>50.166667011491676</v>
       </c>
       <c r="O1" t="n">
-        <v>43.70693997967204</v>
+        <v>50.16666721317745</v>
       </c>
       <c r="P1" t="n">
-        <v>39.67108739158139</v>
+        <v>50.166667532827816</v>
       </c>
       <c r="Q1" t="n">
-        <v>35.33250139670535</v>
+        <v>50.16666803943941</v>
       </c>
       <c r="R1" t="n">
-        <v>31.189291428169675</v>
+        <v>50.166668842364416</v>
       </c>
       <c r="S1" t="n">
-        <v>27.55972844926556</v>
+        <v>50.166670114914155</v>
       </c>
       <c r="T1" t="n">
-        <v>24.480949418138728</v>
+        <v>50.16667213176795</v>
       </c>
       <c r="U1" t="n">
-        <v>21.82844933481182</v>
+        <v>50.16667532826176</v>
       </c>
       <c r="V1" t="n">
-        <v>19.477575257676158</v>
+        <v>50.16668039435285</v>
       </c>
       <c r="W1" t="n">
-        <v>17.368756264472644</v>
+        <v>50.16668842354058</v>
       </c>
       <c r="X1" t="n">
-        <v>15.481997559115808</v>
+        <v>50.16670114888132</v>
       </c>
       <c r="Y1" t="n">
-        <v>13.799831001213331</v>
+        <v>50.166721317025946</v>
       </c>
       <c r="Z1" t="n">
-        <v>12.3005478475338</v>
+        <v>50.1667532809759</v>
       </c>
       <c r="AA1" t="n">
-        <v>10.963892638723797</v>
+        <v>50.16680393940487</v>
       </c>
       <c r="AB1" t="n">
-        <v>9.772290245687639</v>
+        <v>50.166884225047816</v>
       </c>
       <c r="AC1" t="n">
-        <v>8.71006951700582</v>
+        <v>50.167011462796076</v>
       </c>
       <c r="AD1" t="n">
-        <v>7.763217669071573</v>
+        <v>50.167213104910466</v>
       </c>
       <c r="AE1" t="n">
-        <v>6.919230763338626</v>
+        <v>50.167532645622344</v>
       </c>
       <c r="AF1" t="n">
-        <v>6.166952494208954</v>
+        <v>50.1680389818064</v>
       </c>
       <c r="AG1" t="n">
-        <v>5.4964310896134245</v>
+        <v>50.168841215172336</v>
       </c>
       <c r="AH1" t="n">
-        <v>4.898790830585267</v>
+        <v>50.17011202818589</v>
       </c>
       <c r="AI1" t="n">
-        <v>4.36611681259431</v>
+        <v>50.17212452193163</v>
       </c>
       <c r="AJ1" t="n">
-        <v>3.8913517294450934</v>
+        <v>50.17531007329605</v>
       </c>
       <c r="AK1" t="n">
-        <v>3.4682035166313323</v>
+        <v>50.18034871604175</v>
       </c>
       <c r="AL1" t="n">
-        <v>3.0910627776108868</v>
+        <v>50.18830910671466</v>
       </c>
       <c r="AM1" t="n">
-        <v>2.7549290038382868</v>
+        <v>50.200862231561</v>
       </c>
       <c r="AN1" t="n">
-        <v>2.455344685667604</v>
+        <v>50.22060013715498</v>
       </c>
       <c r="AO1" t="n">
-        <v>2.188336494157944</v>
+        <v>50.25149260469025</v>
       </c>
       <c r="AP1" t="n">
-        <v>1.9503627920527977</v>
+        <v>50.29949560978999</v>
       </c>
       <c r="AQ1" t="n">
-        <v>1.7382668050500292</v>
+        <v>50.373250120649466</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.5492348516365475</v>
+        <v>50.48460953491135</v>
       </c>
       <c r="AS1" t="n">
-        <v>1.3807590912150478</v>
+        <v>50.648314389185224</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.2306043061642216</v>
+        <v>50.87948078245282</v>
       </c>
       <c r="AU1" t="n">
-        <v>1.0967782841241929</v>
+        <v>51.18709511350647</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.9775054125240518</v>
+        <v>51.56271234746811</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.8712031385365181</v>
+        <v>51.967568880221066</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.7764609846319976</v>
+        <v>52.32644140109046</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>52.53484678137658</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>52.47378153657293</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>52.01713292260953</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>51.02647442242237</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>49.34816654416168</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>46.841882713592895</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>43.465950368767004</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>39.3960544069687</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>35.05567532740387</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>30.938946332467257</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>27.34630019359226</v>
+      </c>
+      <c r="BJ1" t="n">
+        <v>24.299350853138815</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>21.66935619968439</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>19.33515472753575</v>
+      </c>
+      <c r="BM1" t="n">
+        <v>17.241040408519908</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>15.36801802268459</v>
+      </c>
+      <c r="BO1" t="n">
+        <v>13.698260508903678</v>
+      </c>
+      <c r="BP1" t="n">
+        <v>12.209999729311834</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>10.883167016903647</v>
+      </c>
+      <c r="BR1" t="n">
+        <v>9.700328119829406</v>
+      </c>
+      <c r="BS1" t="n">
+        <v>8.645922246433388</v>
+      </c>
+      <c r="BT1" t="n">
+        <v>7.706038529513079</v>
+      </c>
+      <c r="BU1" t="n">
+        <v>6.868264241116089</v>
+      </c>
+      <c r="BV1" t="n">
+        <v>6.121524581095671</v>
+      </c>
+      <c r="BW1" t="n">
+        <v>5.4559406114854605</v>
+      </c>
+      <c r="BX1" t="n">
+        <v>4.862701659830987</v>
+      </c>
+      <c r="BY1" t="n">
+        <v>4.333950889601137</v>
+      </c>
+      <c r="BZ1" t="n">
+        <v>3.8626828156564934</v>
+      </c>
+      <c r="CA1" t="n">
+        <v>3.4426516074334246</v>
+      </c>
+      <c r="CB1" t="n">
+        <v>3.0682891088797724</v>
+      </c>
+      <c r="CC1" t="n">
+        <v>2.734631591585148</v>
+      </c>
+      <c r="CD1" t="n">
+        <v>2.437254343663776</v>
+      </c>
+      <c r="CE1" t="n">
+        <v>2.172213279598764</v>
+      </c>
+      <c r="CF1" t="n">
+        <v>1.9359928341652903</v>
+      </c>
+      <c r="CG1" t="n">
+        <v>1.7254594760356219</v>
+      </c>
+      <c r="CH1" t="n">
+        <v>1.5378202434578805</v>
+      </c>
+      <c r="CI1" t="n">
+        <v>1.3705857654915439</v>
+      </c>
+      <c r="CJ1" t="n">
+        <v>1.2215372878494186</v>
+      </c>
+      <c r="CK1" t="n">
+        <v>1.0886972727191717</v>
+      </c>
+      <c r="CL1" t="n">
+        <v>0.970303187358665</v>
+      </c>
+      <c r="CM1" t="n">
+        <v>0.8647841371476407</v>
+      </c>
+      <c r="CN1" t="n">
+        <v>0.7707400355097398</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-478.85285674340287</v>
+        <v>-7478550.225160163</v>
       </c>
       <c r="B2" t="n">
-        <v>-380.37921781054786</v>
+        <v>-5940423.598645656</v>
       </c>
       <c r="C2" t="n">
-        <v>-302.19735080030523</v>
+        <v>-4718646.190623277</v>
       </c>
       <c r="D2" t="n">
-        <v>-240.17053776028158</v>
+        <v>-3748153.8988819737</v>
       </c>
       <c r="E2" t="n">
-        <v>-191.03607909096658</v>
+        <v>-2977264.4699684763</v>
       </c>
       <c r="F2" t="n">
-        <v>-152.23009015390855</v>
+        <v>-2364925.230730617</v>
       </c>
       <c r="G2" t="n">
-        <v>-121.74010781679617</v>
+        <v>-1878526.8837726468</v>
       </c>
       <c r="H2" t="n">
-        <v>-97.97687107759396</v>
+        <v>-1492166.943458508</v>
       </c>
       <c r="I2" t="n">
-        <v>-79.66750137631901</v>
+        <v>-1185270.3340978227</v>
       </c>
       <c r="J2" t="n">
-        <v>-65.77741769859995</v>
+        <v>-941493.6921379863</v>
       </c>
       <c r="K2" t="n">
-        <v>-55.45737588286427</v>
+        <v>-747855.0224586155</v>
       </c>
       <c r="L2" t="n">
-        <v>-47.99691037467409</v>
+        <v>-594042.3597923022</v>
       </c>
       <c r="M2" t="n">
-        <v>-42.765898675538764</v>
+        <v>-471864.6189713535</v>
       </c>
       <c r="N2" t="n">
-        <v>-39.14457183838609</v>
+        <v>-374815.38977366773</v>
       </c>
       <c r="O2" t="n">
-        <v>-36.47590611190459</v>
+        <v>-297726.4468526635</v>
       </c>
       <c r="P2" t="n">
-        <v>-34.110863766029446</v>
+        <v>-236492.52289154477</v>
       </c>
       <c r="Q2" t="n">
-        <v>-31.58308111728815</v>
+        <v>-187852.68814874868</v>
       </c>
       <c r="R2" t="n">
-        <v>-28.7801679326056</v>
+        <v>-149216.69405816682</v>
       </c>
       <c r="S2" t="n">
-        <v>-25.89248909886723</v>
+        <v>-118527.03304761079</v>
       </c>
       <c r="T2" t="n">
-        <v>-23.169178335442886</v>
+        <v>-94149.3687578542</v>
       </c>
       <c r="U2" t="n">
-        <v>-20.733961786848994</v>
+        <v>-74785.50167186637</v>
       </c>
       <c r="V2" t="n">
-        <v>-18.57844077297603</v>
+        <v>-59404.23525662277</v>
       </c>
       <c r="W2" t="n">
-        <v>-16.649208143789842</v>
+        <v>-47186.460987445746</v>
       </c>
       <c r="X2" t="n">
-        <v>-14.910042058054776</v>
+        <v>-37481.53783217389</v>
       </c>
       <c r="Y2" t="n">
-        <v>-13.343967962503143</v>
+        <v>-29772.643243630704</v>
       </c>
       <c r="Z2" t="n">
-        <v>-11.936979915249658</v>
+        <v>-23649.250474395918</v>
       </c>
       <c r="AA2" t="n">
-        <v>-10.67413576913741</v>
+        <v>-18785.266530534856</v>
       </c>
       <c r="AB2" t="n">
-        <v>-9.541451087632089</v>
+        <v>-14921.666530612829</v>
       </c>
       <c r="AC2" t="n">
-        <v>-8.526224267211978</v>
+        <v>-11852.699686310616</v>
       </c>
       <c r="AD2" t="n">
-        <v>-7.616841439076867</v>
+        <v>-9414.932322853696</v>
       </c>
       <c r="AE2" t="n">
-        <v>-6.8027167847096885</v>
+        <v>-7478.544440228167</v>
       </c>
       <c r="AF2" t="n">
-        <v>-6.074229628017983</v>
+        <v>-5940.416325509972</v>
       </c>
       <c r="AG2" t="n">
-        <v>-5.422656343393384</v>
+        <v>-4718.637053561009</v>
       </c>
       <c r="AH2" t="n">
-        <v>-4.840102707630251</v>
+        <v>-3748.142434439306</v>
       </c>
       <c r="AI2" t="n">
-        <v>-4.31943767178996</v>
+        <v>-2977.250113726922</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-3.8542295709090313</v>
+        <v>-2364.9073100277487</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.4386854375817117</v>
+        <v>-1878.5046271350666</v>
       </c>
       <c r="AL2" t="n">
-        <v>-3.067593836324152</v>
+        <v>-1492.139529204386</v>
       </c>
       <c r="AM2" t="n">
-        <v>-2.7362714449827252</v>
+        <v>-1185.2370236188833</v>
       </c>
       <c r="AN2" t="n">
-        <v>-2.4405134665789423</v>
+        <v>-941.4541378542616</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.17654784992901</v>
+        <v>-747.8099238218861</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.940993222038377</v>
+        <v>-593.9947900833491</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.7308203830785556</v>
+        <v>-471.822593319165</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.5433171804122574</v>
+        <v>-374.7965993665888</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.3760565574100572</v>
+        <v>-297.76643825175535</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.226867562334073</v>
+        <v>-236.65753747318516</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.093809099697198</v>
+        <v>-188.2569859711071</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.9751462091601196</v>
+        <v>-150.0405200803044</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.8693286635845352</v>
+        <v>-120.0265223236842</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.7749716870711808</v>
+        <v>-96.64899036398528</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-78.65237391040486</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-65.0154028359801</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-54.89920242086493</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-47.600404768593755</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-42.49168074385296</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-38.95172807246587</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-36.321258110222765</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-33.956604942289395</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-31.410416931568754</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-28.59430523601175</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-25.71046080741358</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-23.003653879580227</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>-20.58763356799148</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-18.448248432536847</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-16.532020684973084</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-14.8043851275853</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>-13.248968378479328</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>-11.851685980012379</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-10.597607724507624</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>-9.472837532472491</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>-8.464747384346946</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>-7.561790936106669</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>-6.753446402265259</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>-6.030152771609812</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>-5.383241719518979</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-4.804870013769825</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-4.287953417011468</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>-3.826103078817662</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>-3.4135650652095033</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>-3.0451634286556932</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>-2.716247034317395</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>-2.4226402181404794</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>-2.160597249478198</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>-1.9267604972589658</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1.718122147814286</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>-1.5319892891324138</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>-1.3659521563320232</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1.2178553232436438</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-1.08577162253137</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-0.9679785797359604</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>-0.8629371533811379</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>-0.7692725826301937</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0055595393982673</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.2659244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.5937044686066466</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.006355054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>2.5258513630895303</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.1798584674083457</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.003204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>5.039736037985317</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>6.344651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>7.987443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>10.055595393982673</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>12.659244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>15.937044686066464</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>20.06355054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>25.258513630895305</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>31.798584674083457</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>40.03204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>50.39736037985317</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>63.44651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>79.87443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>100.55595393982672</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>126.59244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>159.37044686066466</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>200.63550544188269</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>252.58513630895305</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>317.9858467408346</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.3204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>503.97360379853166</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>634.4651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>798.7443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1005.5595393982672</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1265.9244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1593.7044686066465</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2006.355054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>2525.8513630895304</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3179.8584674083454</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4003.204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>5039.736037985316</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>6344.651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>7987.443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>10055.595393982672</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>12659.244572205167</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15937.044686066465</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>20063.55054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>25258.513630895304</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>31798.584674083457</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>40032.046305292206</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>50397.36037985316</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>63446.51766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>79874.43338403871</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -1008,458 +1764,836 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>56.49583281650454</v>
+        <v>56.700666665792255</v>
       </c>
       <c r="B1" t="n">
-        <v>56.38338837206665</v>
+        <v>56.70066666528082</v>
       </c>
       <c r="C1" t="n">
-        <v>56.21534409644318</v>
+        <v>56.70066666447025</v>
       </c>
       <c r="D1" t="n">
-        <v>55.97199601614041</v>
+        <v>56.70066666318557</v>
       </c>
       <c r="E1" t="n">
-        <v>55.63530337181294</v>
+        <v>56.700666661149505</v>
       </c>
       <c r="F1" t="n">
-        <v>55.19731022691672</v>
+        <v>56.70066665792256</v>
       </c>
       <c r="G1" t="n">
-        <v>54.6677613242949</v>
+        <v>56.70066665280819</v>
       </c>
       <c r="H1" t="n">
-        <v>54.068066158727646</v>
+        <v>56.700666644702466</v>
       </c>
       <c r="I1" t="n">
-        <v>53.40224629137981</v>
+        <v>56.70066663185575</v>
       </c>
       <c r="J1" t="n">
-        <v>52.6216569121102</v>
+        <v>56.70066661149508</v>
       </c>
       <c r="K1" t="n">
-        <v>51.6164552428771</v>
+        <v>56.7006665792256</v>
       </c>
       <c r="L1" t="n">
-        <v>50.24074549229595</v>
+        <v>56.70066652808192</v>
       </c>
       <c r="M1" t="n">
-        <v>48.35260265295663</v>
+        <v>56.70066644702464</v>
       </c>
       <c r="N1" t="n">
-        <v>45.857184666063034</v>
+        <v>56.70066631855752</v>
       </c>
       <c r="O1" t="n">
-        <v>42.7468857436315</v>
+        <v>56.70066611495087</v>
       </c>
       <c r="P1" t="n">
-        <v>39.12460322048582</v>
+        <v>56.70066579225612</v>
       </c>
       <c r="Q1" t="n">
-        <v>35.203158771411324</v>
+        <v>56.70066528081947</v>
       </c>
       <c r="R1" t="n">
-        <v>31.28028023354118</v>
+        <v>56.700664470247226</v>
       </c>
       <c r="S1" t="n">
-        <v>27.656836520363157</v>
+        <v>56.700663185577305</v>
       </c>
       <c r="T1" t="n">
-        <v>24.503981354037723</v>
+        <v>56.700661149513984</v>
       </c>
       <c r="U1" t="n">
-        <v>21.80811630302172</v>
+        <v>56.700657922574344</v>
       </c>
       <c r="V1" t="n">
-        <v>19.457656205248423</v>
+        <v>56.70065280822785</v>
       </c>
       <c r="W1" t="n">
-        <v>17.35985629164257</v>
+        <v>56.700644702555444</v>
       </c>
       <c r="X1" t="n">
-        <v>15.477460102867697</v>
+        <v>56.700631855982</v>
       </c>
       <c r="Y1" t="n">
-        <v>13.796190694495106</v>
+        <v>56.70061149566475</v>
       </c>
       <c r="Z1" t="n">
-        <v>12.297824077816449</v>
+        <v>56.70057922706196</v>
       </c>
       <c r="AA1" t="n">
-        <v>10.961979492873017</v>
+        <v>56.70052808559044</v>
       </c>
       <c r="AB1" t="n">
-        <v>9.770928234268524</v>
+        <v>56.70044703387347</v>
       </c>
       <c r="AC1" t="n">
-        <v>8.709099654483477</v>
+        <v>56.700318580715944</v>
       </c>
       <c r="AD1" t="n">
-        <v>7.76252787589143</v>
+        <v>56.70011500913374</v>
       </c>
       <c r="AE1" t="n">
-        <v>6.918740369410201</v>
+        <v>56.69979240245104</v>
       </c>
       <c r="AF1" t="n">
-        <v>6.166604021541612</v>
+        <v>56.69928118701838</v>
       </c>
       <c r="AG1" t="n">
-        <v>5.496183566668143</v>
+        <v>56.69847117032966</v>
       </c>
       <c r="AH1" t="n">
-        <v>4.89861507690419</v>
+        <v>56.69718789553069</v>
       </c>
       <c r="AI1" t="n">
-        <v>4.365992059056786</v>
+        <v>56.695155335096004</v>
       </c>
       <c r="AJ1" t="n">
-        <v>3.8912632023664435</v>
+        <v>56.69193718830874</v>
       </c>
       <c r="AK1" t="n">
-        <v>3.4681407125468784</v>
+        <v>56.68684490462407</v>
       </c>
       <c r="AL1" t="n">
-        <v>3.0910182324728956</v>
+        <v>56.67879455676993</v>
       </c>
       <c r="AM1" t="n">
-        <v>2.7548974156854187</v>
+        <v>56.66608657641985</v>
       </c>
       <c r="AN1" t="n">
-        <v>2.4553222897268707</v>
+        <v>56.646072900109154</v>
       </c>
       <c r="AO1" t="n">
-        <v>2.188320618046391</v>
+        <v>56.61466913735323</v>
       </c>
       <c r="AP1" t="n">
-        <v>1.9503515393619868</v>
+        <v>56.56567691340843</v>
       </c>
       <c r="AQ1" t="n">
-        <v>1.7382588303774018</v>
+        <v>56.48993355313423</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.5492292007101396</v>
+        <v>56.37446583302272</v>
       </c>
       <c r="AS1" t="n">
-        <v>1.3807550873248118</v>
+        <v>56.20219111374038</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.2306014695177003</v>
+        <v>55.95333212565601</v>
       </c>
       <c r="AU1" t="n">
-        <v>1.09677627460054</v>
+        <v>55.61020976711793</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.9775039890495404</v>
+        <v>55.16584066484379</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.8712021302630245</v>
+        <v>54.631131516704286</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.776460270494024</v>
+        <v>54.02747288294672</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>53.35643512462772</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>52.56528717411161</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>51.54084632964188</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>50.13620937356541</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>48.21116754451863</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>45.67537049401223</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>42.52787200494971</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>38.87887400245274</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>34.94776089418456</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>31.035763104320036</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>27.43942173262299</v>
+      </c>
+      <c r="BJ1" t="n">
+        <v>24.31805356120715</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>21.64802610857636</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>19.315964520872317</v>
+      </c>
+      <c r="BM1" t="n">
+        <v>17.23264439052551</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>15.363576994214139</v>
+      </c>
+      <c r="BO1" t="n">
+        <v>13.6946711625425</v>
+      </c>
+      <c r="BP1" t="n">
+        <v>12.20733631608453</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>10.881295864632545</v>
+      </c>
+      <c r="BR1" t="n">
+        <v>9.698995369802875</v>
+      </c>
+      <c r="BS1" t="n">
+        <v>8.644973372818347</v>
+      </c>
+      <c r="BT1" t="n">
+        <v>7.705363678950943</v>
+      </c>
+      <c r="BU1" t="n">
+        <v>6.867784485685499</v>
+      </c>
+      <c r="BV1" t="n">
+        <v>6.121183677514216</v>
+      </c>
+      <c r="BW1" t="n">
+        <v>5.455698470885921</v>
+      </c>
+      <c r="BX1" t="n">
+        <v>4.862529731654973</v>
+      </c>
+      <c r="BY1" t="n">
+        <v>4.3338288538686465</v>
+      </c>
+      <c r="BZ1" t="n">
+        <v>3.862596218681949</v>
+      </c>
+      <c r="CA1" t="n">
+        <v>3.4425901735819218</v>
+      </c>
+      <c r="CB1" t="n">
+        <v>3.0682455362104415</v>
+      </c>
+      <c r="CC1" t="n">
+        <v>2.7346006934160214</v>
+      </c>
+      <c r="CD1" t="n">
+        <v>2.437232437160318</v>
+      </c>
+      <c r="CE1" t="n">
+        <v>2.172197750592839</v>
+      </c>
+      <c r="CF1" t="n">
+        <v>1.9359818275922218</v>
+      </c>
+      <c r="CG1" t="n">
+        <v>1.7254516758447198</v>
+      </c>
+      <c r="CH1" t="n">
+        <v>1.5378147162090112</v>
+      </c>
+      <c r="CI1" t="n">
+        <v>1.370581849255522</v>
+      </c>
+      <c r="CJ1" t="n">
+        <v>1.2215345133187248</v>
+      </c>
+      <c r="CK1" t="n">
+        <v>1.0886953072089254</v>
+      </c>
+      <c r="CL1" t="n">
+        <v>0.9703017950677371</v>
+      </c>
+      <c r="CM1" t="n">
+        <v>0.8647831509658874</v>
+      </c>
+      <c r="CN1" t="n">
+        <v>0.7707393370212766</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-480.6197401098266</v>
+        <v>-7478550.225278977</v>
       </c>
       <c r="B2" t="n">
-        <v>-382.542649529414</v>
+        <v>-5940423.598795234</v>
       </c>
       <c r="C2" t="n">
-        <v>-304.80670697597327</v>
+        <v>-4718646.190811585</v>
       </c>
       <c r="D2" t="n">
-        <v>-243.24839145982486</v>
+        <v>-3748153.899119039</v>
       </c>
       <c r="E2" t="n">
-        <v>-194.55319797199184</v>
+        <v>-2977264.4702669242</v>
       </c>
       <c r="F2" t="n">
-        <v>-156.08105352046067</v>
+        <v>-2364925.2311063404</v>
       </c>
       <c r="G2" t="n">
-        <v>-125.7379849573271</v>
+        <v>-1878526.8842456543</v>
       </c>
       <c r="H2" t="n">
-        <v>-101.88579503499557</v>
+        <v>-1492166.9440539891</v>
       </c>
       <c r="I2" t="n">
-        <v>-83.26565056781419</v>
+        <v>-1185270.3348474891</v>
       </c>
       <c r="J2" t="n">
-        <v>-68.90784840196892</v>
+        <v>-941493.6930817604</v>
       </c>
       <c r="K2" t="n">
-        <v>-58.030944993412675</v>
+        <v>-747855.0236467568</v>
       </c>
       <c r="L2" t="n">
-        <v>-49.9591351884993</v>
+        <v>-594042.3612880835</v>
       </c>
       <c r="M2" t="n">
-        <v>-44.071058200801964</v>
+        <v>-471864.6208544304</v>
       </c>
       <c r="N2" t="n">
-        <v>-39.775999000617055</v>
+        <v>-374815.39214432106</v>
       </c>
       <c r="O2" t="n">
-        <v>-36.51795005100523</v>
+        <v>-297726.44983713905</v>
       </c>
       <c r="P2" t="n">
-        <v>-33.805090574369686</v>
+        <v>-236492.52664877658</v>
       </c>
       <c r="Q2" t="n">
-        <v>-31.25089729047835</v>
+        <v>-187852.69287882274</v>
       </c>
       <c r="R2" t="n">
-        <v>-28.62562493032307</v>
+        <v>-149216.7000129761</v>
       </c>
       <c r="S2" t="n">
-        <v>-25.90534852650212</v>
+        <v>-118527.0405442693</v>
       </c>
       <c r="T2" t="n">
-        <v>-23.234081283162872</v>
+        <v>-94149.3781955836</v>
       </c>
       <c r="U2" t="n">
-        <v>-20.7751033804631</v>
+        <v>-74785.51355325479</v>
       </c>
       <c r="V2" t="n">
-        <v>-18.59167170817692</v>
+        <v>-59404.25021438671</v>
       </c>
       <c r="W2" t="n">
-        <v>-16.654376691046778</v>
+        <v>-47186.47981811921</v>
       </c>
       <c r="X2" t="n">
-        <v>-14.915182244578608</v>
+        <v>-37481.56153851609</v>
       </c>
       <c r="Y2" t="n">
-        <v>-13.34816898329431</v>
+        <v>-29772.67308800537</v>
       </c>
       <c r="Z2" t="n">
-        <v>-11.93984569291791</v>
+        <v>-23649.288045954352</v>
       </c>
       <c r="AA2" t="n">
-        <v>-10.676147109658425</v>
+        <v>-18785.313829759416</v>
       </c>
       <c r="AB2" t="n">
-        <v>-9.542880586549849</v>
+        <v>-14921.72607568107</v>
       </c>
       <c r="AC2" t="n">
-        <v>-8.52723609746474</v>
+        <v>-11852.774646860578</v>
       </c>
       <c r="AD2" t="n">
-        <v>-7.617557876902073</v>
+        <v>-9415.026688106704</v>
       </c>
       <c r="AE2" t="n">
-        <v>-6.803224049479707</v>
+        <v>-7478.66323008895</v>
       </c>
       <c r="AF2" t="n">
-        <v>-6.074588780440457</v>
+        <v>-5940.5658552214145</v>
       </c>
       <c r="AG2" t="n">
-        <v>-5.422910624452798</v>
+        <v>-4718.825264682923</v>
       </c>
       <c r="AH2" t="n">
-        <v>-4.840282736471454</v>
+        <v>-3748.3793071395025</v>
       </c>
       <c r="AI2" t="n">
-        <v>-4.319565129014869</v>
+        <v>-2977.5481770936963</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-3.8543198074171863</v>
+        <v>-2365.282267160511</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.4387493222251453</v>
+        <v>-1878.9761076686266</v>
       </c>
       <c r="AL2" t="n">
-        <v>-3.067639064365019</v>
+        <v>-1492.7319686648289</v>
       </c>
       <c r="AM2" t="n">
-        <v>-2.736303464646774</v>
+        <v>-1185.9806368163493</v>
       </c>
       <c r="AN2" t="n">
-        <v>-2.440536135138752</v>
+        <v>-942.3858840609511</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.176563898250821</v>
+        <v>-748.9742224178972</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.9410045834986722</v>
+        <v>-595.4434854200439</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.7308284264432143</v>
+        <v>-473.61322303521456</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.5433228747159333</v>
+        <v>-376.98736706865503</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.3760605886894908</v>
+        <v>-300.40562149117676</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.226870416273259</v>
+        <v>-239.7651890614233</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.0938111201381142</v>
+        <v>-191.79962525478714</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.9751476395265196</v>
+        <v>-153.90731970953442</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.86932967620852</v>
+        <v>-124.02597916119603</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.7749724039552559</v>
+        <v>-100.54410653917967</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-82.22437574874998</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-68.11216799018764</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-57.43497849163734</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-49.521720027473116</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-43.753437809441365</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-39.541209711701626</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-36.332062813378464</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-33.63964122376174</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-31.085778244057742</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-28.452837641269856</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-25.730279050647173</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-23.068440508901926</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>-20.62654719322258</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-18.460404027271267</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-16.537110689400663</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-14.809513639491435</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>-13.253075740611521</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>-11.854483234367835</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-10.59957569505447</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>-9.474235703464707</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>-8.46573701443551</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>-7.562491661553231</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>-6.753942540394151</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>-6.030504045699404</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>-5.3834904224015165</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-4.805046093144292</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-4.288078077990975</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>-3.826191335601883</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>-3.4136275482402505</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>-3.0452076643882062</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>-2.716278351456934</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>-2.422662389337501</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>-2.1606129456865006</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>-1.926771609437695</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1.7181300146986933</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>-1.5319948584962786</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>-1.3659560991600777</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1.2178581145636174</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-1.0857735986410357</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-0.9679799787181016</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>-0.8629381437866921</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>-0.7692732837847813</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0055595393982673</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.2659244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.5937044686066466</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.006355054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>2.5258513630895303</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.1798584674083457</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.003204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>5.039736037985317</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>6.344651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>7.987443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>10.055595393982673</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>12.659244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>15.937044686066464</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>20.06355054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>25.258513630895305</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>31.798584674083457</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>40.03204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>50.39736037985317</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>63.44651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>79.87443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>100.55595393982672</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>126.59244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>159.37044686066466</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>200.63550544188269</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>252.58513630895305</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>317.9858467408346</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.3204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>503.97360379853166</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>634.4651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>798.7443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1005.5595393982672</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1265.9244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1593.7044686066465</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2006.355054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>2525.8513630895304</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3179.8584674083454</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4003.204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>5039.736037985316</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>6344.651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>7987.443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>10055.595393982672</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>12659.244572205167</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15937.044686066465</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>20063.55054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>25258.513630895304</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>31798.584674083457</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>40032.046305292206</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>50397.36037985316</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>63446.51766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>79874.43338403871</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -1477,458 +2611,836 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>50.11177180606656</v>
+        <v>50.16666666641951</v>
       </c>
       <c r="B1" t="n">
-        <v>50.084204446071304</v>
+        <v>50.16666666627494</v>
       </c>
       <c r="C1" t="n">
-        <v>50.04642287328564</v>
+        <v>50.16666666604583</v>
       </c>
       <c r="D1" t="n">
-        <v>49.99900802767565</v>
+        <v>50.166666665682705</v>
       </c>
       <c r="E1" t="n">
-        <v>49.94765474413549</v>
+        <v>50.16666666510719</v>
       </c>
       <c r="F1" t="n">
-        <v>49.90506043100786</v>
+        <v>50.16666666419507</v>
       </c>
       <c r="G1" t="n">
-        <v>49.88621510996236</v>
+        <v>50.166666662749456</v>
       </c>
       <c r="H1" t="n">
-        <v>49.891355460196145</v>
+        <v>50.166666660458304</v>
       </c>
       <c r="I1" t="n">
-        <v>49.88283409426945</v>
+        <v>50.16666665682707</v>
       </c>
       <c r="J1" t="n">
-        <v>49.77626109896403</v>
+        <v>50.16666665107196</v>
       </c>
       <c r="K1" t="n">
-        <v>49.454077000760975</v>
+        <v>50.16666664195072</v>
       </c>
       <c r="L1" t="n">
-        <v>48.78309128922364</v>
+        <v>50.166666627494536</v>
       </c>
       <c r="M1" t="n">
-        <v>47.62040363213358</v>
+        <v>50.16666660458302</v>
       </c>
       <c r="N1" t="n">
-        <v>45.81781583944725</v>
+        <v>50.16666656827073</v>
       </c>
       <c r="O1" t="n">
-        <v>43.250099791960956</v>
+        <v>50.16666651071962</v>
       </c>
       <c r="P1" t="n">
-        <v>39.89045645516</v>
+        <v>50.166666419507294</v>
       </c>
       <c r="Q1" t="n">
-        <v>35.921787806477155</v>
+        <v>50.166666274945555</v>
       </c>
       <c r="R1" t="n">
-        <v>31.772633994203915</v>
+        <v>50.16666604583076</v>
       </c>
       <c r="S1" t="n">
-        <v>27.93070009434912</v>
+        <v>50.166665682708626</v>
       </c>
       <c r="T1" t="n">
-        <v>24.655164689509792</v>
+        <v>50.16666510719968</v>
       </c>
       <c r="U1" t="n">
-        <v>21.910293079424495</v>
+        <v>50.166664195081594</v>
       </c>
       <c r="V1" t="n">
-        <v>19.536706139006682</v>
+        <v>50.166662749477204</v>
       </c>
       <c r="W1" t="n">
-        <v>17.419221741117926</v>
+        <v>50.166660458362095</v>
       </c>
       <c r="X1" t="n">
-        <v>15.519815646928281</v>
+        <v>50.16665682722313</v>
       </c>
       <c r="Y1" t="n">
-        <v>13.826217982294459</v>
+        <v>50.16665107234053</v>
       </c>
       <c r="Z1" t="n">
-        <v>12.319255584214016</v>
+        <v>50.16664195167937</v>
       </c>
       <c r="AA1" t="n">
-        <v>10.977266902495938</v>
+        <v>50.16662749694081</v>
       </c>
       <c r="AB1" t="n">
-        <v>9.781817592335418</v>
+        <v>50.16660458906846</v>
       </c>
       <c r="AC1" t="n">
-        <v>8.71685134986451</v>
+        <v>50.16656828591424</v>
       </c>
       <c r="AD1" t="n">
-        <v>7.768042558336989</v>
+        <v>50.16651075777317</v>
       </c>
       <c r="AE1" t="n">
-        <v>6.92266143538093</v>
+        <v>50.16641960311321</v>
       </c>
       <c r="AF1" t="n">
-        <v>6.169390631245483</v>
+        <v>50.1662751861988</v>
       </c>
       <c r="AG1" t="n">
-        <v>5.4981630912842405</v>
+        <v>50.16604643510207</v>
       </c>
       <c r="AH1" t="n">
-        <v>4.900020735779179</v>
+        <v>50.16568422611515</v>
       </c>
       <c r="AI1" t="n">
-        <v>4.366989878958566</v>
+        <v>50.16511100925597</v>
       </c>
       <c r="AJ1" t="n">
-        <v>3.891971301800332</v>
+        <v>50.16420464215807</v>
       </c>
       <c r="AK1" t="n">
-        <v>3.468643079316839</v>
+        <v>50.16277345783785</v>
       </c>
       <c r="AL1" t="n">
-        <v>3.0913745565144928</v>
+        <v>50.16051846209935</v>
       </c>
       <c r="AM1" t="n">
-        <v>2.755150100066303</v>
+        <v>50.15697764606493</v>
       </c>
       <c r="AN1" t="n">
-        <v>2.4555014455322177</v>
+        <v>50.15144804564879</v>
       </c>
       <c r="AO1" t="n">
-        <v>2.188447620347807</v>
+        <v>50.14288698312116</v>
       </c>
       <c r="AP1" t="n">
-        <v>1.9504415571820457</v>
+        <v>50.12981336935094</v>
       </c>
       <c r="AQ1" t="n">
-        <v>1.7383226256741273</v>
+        <v>50.11028012950359</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.5492744069493123</v>
+        <v>50.08209529203497</v>
       </c>
       <c r="AS1" t="n">
-        <v>1.3807871177875812</v>
+        <v>50.043639070717845</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.2306241623192202</v>
+        <v>49.99572879951315</v>
       </c>
       <c r="AU1" t="n">
-        <v>1.0967923505813297</v>
+        <v>49.94448536949129</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.9775153767284205</v>
+        <v>49.90300714613957</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.8712101963850611</v>
+        <v>49.885986355065896</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.7764659835607481</v>
+        <v>49.891886450615274</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>49.880062845021776</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>49.76341110680794</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>49.42293374982916</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>48.724759591208446</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>47.525404006341574</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>45.67688934728778</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>43.05746372286884</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>39.65040720753239</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>35.65513691687331</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>31.512184543936012</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>27.702350260550055</v>
+      </c>
+      <c r="BJ1" t="n">
+        <v>24.46443068698635</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>21.74834511202688</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>19.393721355057718</v>
+      </c>
+      <c r="BM1" t="n">
+        <v>17.29079980580635</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>15.40499896599207</v>
+      </c>
+      <c r="BO1" t="n">
+        <v>13.724051247843931</v>
+      </c>
+      <c r="BP1" t="n">
+        <v>12.228309112287059</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>10.896254140275794</v>
+      </c>
+      <c r="BR1" t="n">
+        <v>9.709649767197881</v>
+      </c>
+      <c r="BS1" t="n">
+        <v>8.652557504212194</v>
+      </c>
+      <c r="BT1" t="n">
+        <v>7.710758948948614</v>
+      </c>
+      <c r="BU1" t="n">
+        <v>6.871620519625028</v>
+      </c>
+      <c r="BV1" t="n">
+        <v>6.1239097770413675</v>
+      </c>
+      <c r="BW1" t="n">
+        <v>5.457634960654393</v>
+      </c>
+      <c r="BX1" t="n">
+        <v>4.863904799940527</v>
+      </c>
+      <c r="BY1" t="n">
+        <v>4.33480493889473</v>
+      </c>
+      <c r="BZ1" t="n">
+        <v>3.8632888815370863</v>
+      </c>
+      <c r="CA1" t="n">
+        <v>3.4430815808806234</v>
+      </c>
+      <c r="CB1" t="n">
+        <v>3.0685940818481163</v>
+      </c>
+      <c r="CC1" t="n">
+        <v>2.7348478586835423</v>
+      </c>
+      <c r="CD1" t="n">
+        <v>2.437407677892918</v>
+      </c>
+      <c r="CE1" t="n">
+        <v>2.1723219762884862</v>
+      </c>
+      <c r="CF1" t="n">
+        <v>1.9360698766048865</v>
+      </c>
+      <c r="CG1" t="n">
+        <v>1.725514075363304</v>
+      </c>
+      <c r="CH1" t="n">
+        <v>1.5378589330704222</v>
+      </c>
+      <c r="CI1" t="n">
+        <v>1.370613178508505</v>
+      </c>
+      <c r="CJ1" t="n">
+        <v>1.2215567092070798</v>
+      </c>
+      <c r="CK1" t="n">
+        <v>1.0887110310900303</v>
+      </c>
+      <c r="CL1" t="n">
+        <v>0.9703129332822049</v>
+      </c>
+      <c r="CM1" t="n">
+        <v>0.864791040356394</v>
+      </c>
+      <c r="CN1" t="n">
+        <v>0.7707449248932621</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-479.6316509603161</v>
+        <v>-7478550.225214249</v>
       </c>
       <c r="B2" t="n">
-        <v>-381.31510843906074</v>
+        <v>-5940423.598713747</v>
       </c>
       <c r="C2" t="n">
-        <v>-303.29331014720117</v>
+        <v>-4718646.190708998</v>
       </c>
       <c r="D2" t="n">
-        <v>-241.40453166535238</v>
+        <v>-3748153.89898989</v>
       </c>
       <c r="E2" t="n">
-        <v>-192.34637098286734</v>
+        <v>-2977264.4701043344</v>
       </c>
       <c r="F2" t="n">
-        <v>-153.50608092235186</v>
+        <v>-2364925.2309016525</v>
       </c>
       <c r="G2" t="n">
-        <v>-122.8314316280334</v>
+        <v>-1878526.8839879674</v>
       </c>
       <c r="H2" t="n">
-        <v>-98.72667568064897</v>
+        <v>-1492166.9437295806</v>
       </c>
       <c r="I2" t="n">
-        <v>-79.95384634753825</v>
+        <v>-1185270.334439083</v>
       </c>
       <c r="J2" t="n">
-        <v>-65.53453256766943</v>
+        <v>-941493.6925676075</v>
       </c>
       <c r="K2" t="n">
-        <v>-54.670171132472404</v>
+        <v>-747855.0229994766</v>
       </c>
       <c r="L2" t="n">
-        <v>-46.6914259699987</v>
+        <v>-594042.360473206</v>
       </c>
       <c r="M2" t="n">
-        <v>-41.02023068096676</v>
+        <v>-471864.6198285606</v>
       </c>
       <c r="N2" t="n">
-        <v>-37.12416873299805</v>
+        <v>-374815.39085282746</v>
       </c>
       <c r="O2" t="n">
-        <v>-34.462632345477694</v>
+        <v>-297726.44821124495</v>
       </c>
       <c r="P2" t="n">
-        <v>-32.45294491038617</v>
+        <v>-236492.52460189725</v>
       </c>
       <c r="Q2" t="n">
-        <v>-30.520741803700194</v>
+        <v>-187852.69030195448</v>
       </c>
       <c r="R2" t="n">
-        <v>-28.281542196057014</v>
+        <v>-149216.69676889147</v>
       </c>
       <c r="S2" t="n">
-        <v>-25.716556310689146</v>
+        <v>-118527.03646020926</v>
       </c>
       <c r="T2" t="n">
-        <v>-23.087059425526824</v>
+        <v>-94149.37305405774</v>
       </c>
       <c r="U2" t="n">
-        <v>-20.651113376748167</v>
+        <v>-74785.50708045944</v>
       </c>
       <c r="V2" t="n">
-        <v>-18.497779604172184</v>
+        <v>-59404.242065624625</v>
       </c>
       <c r="W2" t="n">
-        <v>-16.58892831007834</v>
+        <v>-47186.46955944442</v>
       </c>
       <c r="X2" t="n">
-        <v>-14.869723517053012</v>
+        <v>-37481.548623627394</v>
       </c>
       <c r="Y2" t="n">
-        <v>-13.315982183126357</v>
+        <v>-29772.6568291591</v>
       </c>
       <c r="Z2" t="n">
-        <v>-11.917010078230845</v>
+        <v>-23649.267577350052</v>
       </c>
       <c r="AA2" t="n">
-        <v>-10.659983264022864</v>
+        <v>-18785.28806145385</v>
       </c>
       <c r="AB2" t="n">
-        <v>-9.531438105957141</v>
+        <v>-14921.693635586778</v>
       </c>
       <c r="AC2" t="n">
-        <v>-8.519135230970754</v>
+        <v>-11852.733807760982</v>
       </c>
       <c r="AD2" t="n">
-        <v>-7.611822869133064</v>
+        <v>-9414.975275842693</v>
       </c>
       <c r="AE2" t="n">
-        <v>-6.799163953630166</v>
+        <v>-7478.598508110499</v>
       </c>
       <c r="AF2" t="n">
-        <v>-6.071714442221744</v>
+        <v>-5940.484379521678</v>
       </c>
       <c r="AG2" t="n">
-        <v>-5.420875743565464</v>
+        <v>-4718.722701719712</v>
       </c>
       <c r="AH2" t="n">
-        <v>-4.838842148487124</v>
+        <v>-3748.25020570619</v>
       </c>
       <c r="AI2" t="n">
-        <v>-4.318545269501419</v>
+        <v>-2977.3856833036366</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-3.8535978015106993</v>
+        <v>-2365.0777699830323</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.43823818085481</v>
+        <v>-1878.7188013502414</v>
       </c>
       <c r="AL2" t="n">
-        <v>-3.0672772038199523</v>
+        <v>-1492.408319096863</v>
       </c>
       <c r="AM2" t="n">
-        <v>-2.7360472869157824</v>
+        <v>-1185.5737440076684</v>
       </c>
       <c r="AN2" t="n">
-        <v>-2.4403547751521457</v>
+        <v>-941.8747474883459</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.1764355051918445</v>
+        <v>-748.3329502886394</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.9409136881632971</v>
+        <v>-594.6405619969738</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.7307640774684376</v>
+        <v>-472.6110942532403</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.5432773191278653</v>
+        <v>-375.74287618660276</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.376028337801637</v>
+        <v>-298.87227430849447</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.2268475843924955</v>
+        <v>-237.89878623697044</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.093794956404045</v>
+        <v>-189.56892224232115</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.9751361964789583</v>
+        <v>-151.30945475506743</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.8693215751511548</v>
+        <v>-121.10044877052248</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.7749666688458032</v>
+        <v>-97.37213342535328</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-78.90609131981881</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-64.7375437134606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-54.07748501295925</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-46.26358736932071</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-40.72222596471296</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-36.92208027777484</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-34.320367943786835</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-32.33208825977666</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-30.388397650417232</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-28.124689566391254</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-25.54622437949207</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-22.92285999897537</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>-20.50429716688516</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-18.36851648581629</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-16.473211479328445</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-14.76507117102909</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>-13.221588059822185</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>-11.832148132360185</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-10.583766737768816</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>-9.463044258714651</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>-8.457813889707987</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>-7.556882486649865</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>-6.7499715282846</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>-6.027692774394366</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>-5.3815001896981425</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-4.803637113768012</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-4.287080595715727</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>-3.8254851715956204</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>-3.413127622090822</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>-3.0448537436187344</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>-2.71602779466023</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>-2.422485008669446</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>-2.160487369770228</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>-1.9266827084870781</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1.7180670776404277</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>-1.5319503024686671</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>-1.3659245559068927</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1.2178357836498634</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-1.0857577895644634</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-0.9679687867488276</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>-0.8629302204791456</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>-0.7692676745125652</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0055595393982673</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.2659244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.5937044686066466</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.006355054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>2.5258513630895303</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.1798584674083457</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.003204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>5.039736037985317</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>6.344651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>7.987443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>10.055595393982673</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>12.659244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>15.937044686066464</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>20.06355054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>25.258513630895305</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>31.798584674083457</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>40.03204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>50.39736037985317</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>63.44651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>79.87443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>100.55595393982672</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>126.59244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>159.37044686066466</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>200.63550544188269</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>252.58513630895305</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>317.9858467408346</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.3204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>503.97360379853166</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>634.4651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>798.7443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1005.5595393982672</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1265.9244572205166</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1593.7044686066465</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2006.355054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>2525.8513630895304</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3179.8584674083454</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4003.204630529221</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>5039.736037985316</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>6344.651766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>7987.443338403872</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>10055.595393982672</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>12659.244572205167</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15937.044686066465</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>20063.55054418827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>25258.513630895304</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>31798.584674083457</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>40032.046305292206</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>50397.36037985316</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>63446.51766954569</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>79874.43338403871</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/lin_R1_by_R2 (100 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (100 by 1)1000.xlsx
@@ -626,280 +626,280 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>6.439190195912731E-5</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>8.106460169010399E-5</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>1.0205428706464431E-4</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1.2847873536821748E-4</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1.6174514483022703E-4</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>2.036250730611008E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2.563487789550637E-4</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>3.227239921089355E-4</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>4.062854346615992E-4</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>5.11483058137326E-4</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>6.439190195912731E-4</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>8.106460169010399E-4</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>0.0010205428706464431</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>0.0012847873536821748</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>0.0016174514483022703</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>0.0020362507306110078</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>0.002563487789550637</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>0.003227239921089355</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>0.004062854346615992</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>0.00511483058137326</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>0.0064391901959127305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>0.008106460169010399</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>0.010205428706464431</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>0.01284787353682175</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>0.016174514483022703</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>0.02036250730611008</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>0.02563487789550637</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>0.03227239921089355</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>0.04062854346615992</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>0.0511483058137326</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>0.0643919019591273</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>0.08106460169010399</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>0.10205428706464431</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>0.1284787353682175</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>0.16174514483022703</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>0.20362507306110078</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>0.2563487789550637</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>0.3227239921089355</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>0.4062854346615992</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>0.511483058137326</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>0.6439190195912731</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>0.8106460169010399</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>1.020542870646443</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>1.2847873536821748</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>1.6174514483022704</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>2.036250730611008</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>2.5634877895506367</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>3.227239921089355</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>4.062854346615992</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>5.11483058137326</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>6.439190195912731</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>8.106460169010399</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>10.205428706464431</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>12.84787353682175</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>16.174514483022705</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>20.36250730611008</v>
       </c>
       <c r="BE3" t="n">
-        <v>#NUM!</v>
+        <v>25.63487789550637</v>
       </c>
       <c r="BF3" t="n">
-        <v>#NUM!</v>
+        <v>32.27239921089355</v>
       </c>
       <c r="BG3" t="n">
-        <v>#NUM!</v>
+        <v>40.62854346615992</v>
       </c>
       <c r="BH3" t="n">
-        <v>#NUM!</v>
+        <v>51.1483058137326</v>
       </c>
       <c r="BI3" t="n">
-        <v>#NUM!</v>
+        <v>64.39190195912731</v>
       </c>
       <c r="BJ3" t="n">
-        <v>#NUM!</v>
+        <v>81.06460169010398</v>
       </c>
       <c r="BK3" t="n">
-        <v>#NUM!</v>
+        <v>102.05428706464431</v>
       </c>
       <c r="BL3" t="n">
-        <v>#NUM!</v>
+        <v>128.47873536821749</v>
       </c>
       <c r="BM3" t="n">
-        <v>#NUM!</v>
+        <v>161.74514483022705</v>
       </c>
       <c r="BN3" t="n">
-        <v>#NUM!</v>
+        <v>203.62507306110078</v>
       </c>
       <c r="BO3" t="n">
-        <v>#NUM!</v>
+        <v>256.3487789550637</v>
       </c>
       <c r="BP3" t="n">
-        <v>#NUM!</v>
+        <v>322.72399210893553</v>
       </c>
       <c r="BQ3" t="n">
-        <v>#NUM!</v>
+        <v>406.2854346615992</v>
       </c>
       <c r="BR3" t="n">
-        <v>#NUM!</v>
+        <v>511.483058137326</v>
       </c>
       <c r="BS3" t="n">
-        <v>#NUM!</v>
+        <v>643.9190195912731</v>
       </c>
       <c r="BT3" t="n">
-        <v>#NUM!</v>
+        <v>810.6460169010398</v>
       </c>
       <c r="BU3" t="n">
-        <v>#NUM!</v>
+        <v>1020.5428706464431</v>
       </c>
       <c r="BV3" t="n">
-        <v>#NUM!</v>
+        <v>1284.7873536821749</v>
       </c>
       <c r="BW3" t="n">
-        <v>#NUM!</v>
+        <v>1617.4514483022704</v>
       </c>
       <c r="BX3" t="n">
-        <v>#NUM!</v>
+        <v>2036.2507306110078</v>
       </c>
       <c r="BY3" t="n">
-        <v>#NUM!</v>
+        <v>2563.487789550637</v>
       </c>
       <c r="BZ3" t="n">
-        <v>#NUM!</v>
+        <v>3227.239921089355</v>
       </c>
       <c r="CA3" t="n">
-        <v>#NUM!</v>
+        <v>4062.854346615992</v>
       </c>
       <c r="CB3" t="n">
-        <v>#NUM!</v>
+        <v>5114.8305813732595</v>
       </c>
       <c r="CC3" t="n">
-        <v>#NUM!</v>
+        <v>6439.190195912731</v>
       </c>
       <c r="CD3" t="n">
-        <v>#NUM!</v>
+        <v>8106.460169010399</v>
       </c>
       <c r="CE3" t="n">
-        <v>#NUM!</v>
+        <v>10205.42870646443</v>
       </c>
       <c r="CF3" t="n">
-        <v>#NUM!</v>
+        <v>12847.87353682175</v>
       </c>
       <c r="CG3" t="n">
-        <v>#NUM!</v>
+        <v>16174.514483022704</v>
       </c>
       <c r="CH3" t="n">
-        <v>#NUM!</v>
+        <v>20362.507306110077</v>
       </c>
       <c r="CI3" t="n">
-        <v>#NUM!</v>
+        <v>25634.877895506368</v>
       </c>
       <c r="CJ3" t="n">
-        <v>#NUM!</v>
+        <v>32272.39921089355</v>
       </c>
       <c r="CK3" t="n">
-        <v>#NUM!</v>
+        <v>40628.54346615992</v>
       </c>
       <c r="CL3" t="n">
-        <v>#NUM!</v>
+        <v>51148.3058137326</v>
       </c>
       <c r="CM3" t="n">
-        <v>#NUM!</v>
+        <v>64391.90195912731</v>
       </c>
       <c r="CN3" t="n">
-        <v>#NUM!</v>
+        <v>81064.60169010398</v>
       </c>
     </row>
   </sheetData>
@@ -1473,280 +1473,280 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>6.439190195912731E-5</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>8.106460169010399E-5</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>1.0205428706464431E-4</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1.2847873536821748E-4</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1.6174514483022703E-4</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>2.036250730611008E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2.563487789550637E-4</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>3.227239921089355E-4</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>4.062854346615992E-4</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>5.11483058137326E-4</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>6.439190195912731E-4</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>8.106460169010399E-4</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>0.0010205428706464431</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>0.0012847873536821748</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>0.0016174514483022703</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>0.0020362507306110078</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>0.002563487789550637</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>0.003227239921089355</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>0.004062854346615992</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>0.00511483058137326</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>0.0064391901959127305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>0.008106460169010399</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>0.010205428706464431</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>0.01284787353682175</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>0.016174514483022703</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>0.02036250730611008</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>0.02563487789550637</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>0.03227239921089355</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>0.04062854346615992</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>0.0511483058137326</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>0.0643919019591273</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>0.08106460169010399</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>0.10205428706464431</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>0.1284787353682175</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>0.16174514483022703</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>0.20362507306110078</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>0.2563487789550637</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>0.3227239921089355</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>0.4062854346615992</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>0.511483058137326</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>0.6439190195912731</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>0.8106460169010399</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>1.020542870646443</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>1.2847873536821748</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>1.6174514483022704</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>2.036250730611008</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>2.5634877895506367</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>3.227239921089355</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>4.062854346615992</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>5.11483058137326</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>6.439190195912731</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>8.106460169010399</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>10.205428706464431</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>12.84787353682175</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>16.174514483022705</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>20.36250730611008</v>
       </c>
       <c r="BE3" t="n">
-        <v>#NUM!</v>
+        <v>25.63487789550637</v>
       </c>
       <c r="BF3" t="n">
-        <v>#NUM!</v>
+        <v>32.27239921089355</v>
       </c>
       <c r="BG3" t="n">
-        <v>#NUM!</v>
+        <v>40.62854346615992</v>
       </c>
       <c r="BH3" t="n">
-        <v>#NUM!</v>
+        <v>51.1483058137326</v>
       </c>
       <c r="BI3" t="n">
-        <v>#NUM!</v>
+        <v>64.39190195912731</v>
       </c>
       <c r="BJ3" t="n">
-        <v>#NUM!</v>
+        <v>81.06460169010398</v>
       </c>
       <c r="BK3" t="n">
-        <v>#NUM!</v>
+        <v>102.05428706464431</v>
       </c>
       <c r="BL3" t="n">
-        <v>#NUM!</v>
+        <v>128.47873536821749</v>
       </c>
       <c r="BM3" t="n">
-        <v>#NUM!</v>
+        <v>161.74514483022705</v>
       </c>
       <c r="BN3" t="n">
-        <v>#NUM!</v>
+        <v>203.62507306110078</v>
       </c>
       <c r="BO3" t="n">
-        <v>#NUM!</v>
+        <v>256.3487789550637</v>
       </c>
       <c r="BP3" t="n">
-        <v>#NUM!</v>
+        <v>322.72399210893553</v>
       </c>
       <c r="BQ3" t="n">
-        <v>#NUM!</v>
+        <v>406.2854346615992</v>
       </c>
       <c r="BR3" t="n">
-        <v>#NUM!</v>
+        <v>511.483058137326</v>
       </c>
       <c r="BS3" t="n">
-        <v>#NUM!</v>
+        <v>643.9190195912731</v>
       </c>
       <c r="BT3" t="n">
-        <v>#NUM!</v>
+        <v>810.6460169010398</v>
       </c>
       <c r="BU3" t="n">
-        <v>#NUM!</v>
+        <v>1020.5428706464431</v>
       </c>
       <c r="BV3" t="n">
-        <v>#NUM!</v>
+        <v>1284.7873536821749</v>
       </c>
       <c r="BW3" t="n">
-        <v>#NUM!</v>
+        <v>1617.4514483022704</v>
       </c>
       <c r="BX3" t="n">
-        <v>#NUM!</v>
+        <v>2036.2507306110078</v>
       </c>
       <c r="BY3" t="n">
-        <v>#NUM!</v>
+        <v>2563.487789550637</v>
       </c>
       <c r="BZ3" t="n">
-        <v>#NUM!</v>
+        <v>3227.239921089355</v>
       </c>
       <c r="CA3" t="n">
-        <v>#NUM!</v>
+        <v>4062.854346615992</v>
       </c>
       <c r="CB3" t="n">
-        <v>#NUM!</v>
+        <v>5114.8305813732595</v>
       </c>
       <c r="CC3" t="n">
-        <v>#NUM!</v>
+        <v>6439.190195912731</v>
       </c>
       <c r="CD3" t="n">
-        <v>#NUM!</v>
+        <v>8106.460169010399</v>
       </c>
       <c r="CE3" t="n">
-        <v>#NUM!</v>
+        <v>10205.42870646443</v>
       </c>
       <c r="CF3" t="n">
-        <v>#NUM!</v>
+        <v>12847.87353682175</v>
       </c>
       <c r="CG3" t="n">
-        <v>#NUM!</v>
+        <v>16174.514483022704</v>
       </c>
       <c r="CH3" t="n">
-        <v>#NUM!</v>
+        <v>20362.507306110077</v>
       </c>
       <c r="CI3" t="n">
-        <v>#NUM!</v>
+        <v>25634.877895506368</v>
       </c>
       <c r="CJ3" t="n">
-        <v>#NUM!</v>
+        <v>32272.39921089355</v>
       </c>
       <c r="CK3" t="n">
-        <v>#NUM!</v>
+        <v>40628.54346615992</v>
       </c>
       <c r="CL3" t="n">
-        <v>#NUM!</v>
+        <v>51148.3058137326</v>
       </c>
       <c r="CM3" t="n">
-        <v>#NUM!</v>
+        <v>64391.90195912731</v>
       </c>
       <c r="CN3" t="n">
-        <v>#NUM!</v>
+        <v>81064.60169010398</v>
       </c>
     </row>
   </sheetData>
@@ -2320,280 +2320,280 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>6.439190195912731E-5</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>8.106460169010399E-5</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>1.0205428706464431E-4</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1.2847873536821748E-4</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1.6174514483022703E-4</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>2.036250730611008E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2.563487789550637E-4</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>3.227239921089355E-4</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>4.062854346615992E-4</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>5.11483058137326E-4</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>6.439190195912731E-4</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>8.106460169010399E-4</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>0.0010205428706464431</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>0.0012847873536821748</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>0.0016174514483022703</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>0.0020362507306110078</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>0.002563487789550637</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>0.003227239921089355</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>0.004062854346615992</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>0.00511483058137326</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>0.0064391901959127305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>0.008106460169010399</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>0.010205428706464431</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>0.01284787353682175</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>0.016174514483022703</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>0.02036250730611008</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>0.02563487789550637</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>0.03227239921089355</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>0.04062854346615992</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>0.0511483058137326</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>0.0643919019591273</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>0.08106460169010399</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>0.10205428706464431</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>0.1284787353682175</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>0.16174514483022703</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>0.20362507306110078</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>0.2563487789550637</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>0.3227239921089355</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>0.4062854346615992</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>0.511483058137326</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>0.6439190195912731</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>0.8106460169010399</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>1.020542870646443</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>1.2847873536821748</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>1.6174514483022704</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>2.036250730611008</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>2.5634877895506367</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>3.227239921089355</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>4.062854346615992</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>5.11483058137326</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>6.439190195912731</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>8.106460169010399</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>10.205428706464431</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>12.84787353682175</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>16.174514483022705</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>20.36250730611008</v>
       </c>
       <c r="BE3" t="n">
-        <v>#NUM!</v>
+        <v>25.63487789550637</v>
       </c>
       <c r="BF3" t="n">
-        <v>#NUM!</v>
+        <v>32.27239921089355</v>
       </c>
       <c r="BG3" t="n">
-        <v>#NUM!</v>
+        <v>40.62854346615992</v>
       </c>
       <c r="BH3" t="n">
-        <v>#NUM!</v>
+        <v>51.1483058137326</v>
       </c>
       <c r="BI3" t="n">
-        <v>#NUM!</v>
+        <v>64.39190195912731</v>
       </c>
       <c r="BJ3" t="n">
-        <v>#NUM!</v>
+        <v>81.06460169010398</v>
       </c>
       <c r="BK3" t="n">
-        <v>#NUM!</v>
+        <v>102.05428706464431</v>
       </c>
       <c r="BL3" t="n">
-        <v>#NUM!</v>
+        <v>128.47873536821749</v>
       </c>
       <c r="BM3" t="n">
-        <v>#NUM!</v>
+        <v>161.74514483022705</v>
       </c>
       <c r="BN3" t="n">
-        <v>#NUM!</v>
+        <v>203.62507306110078</v>
       </c>
       <c r="BO3" t="n">
-        <v>#NUM!</v>
+        <v>256.3487789550637</v>
       </c>
       <c r="BP3" t="n">
-        <v>#NUM!</v>
+        <v>322.72399210893553</v>
       </c>
       <c r="BQ3" t="n">
-        <v>#NUM!</v>
+        <v>406.2854346615992</v>
       </c>
       <c r="BR3" t="n">
-        <v>#NUM!</v>
+        <v>511.483058137326</v>
       </c>
       <c r="BS3" t="n">
-        <v>#NUM!</v>
+        <v>643.9190195912731</v>
       </c>
       <c r="BT3" t="n">
-        <v>#NUM!</v>
+        <v>810.6460169010398</v>
       </c>
       <c r="BU3" t="n">
-        <v>#NUM!</v>
+        <v>1020.5428706464431</v>
       </c>
       <c r="BV3" t="n">
-        <v>#NUM!</v>
+        <v>1284.7873536821749</v>
       </c>
       <c r="BW3" t="n">
-        <v>#NUM!</v>
+        <v>1617.4514483022704</v>
       </c>
       <c r="BX3" t="n">
-        <v>#NUM!</v>
+        <v>2036.2507306110078</v>
       </c>
       <c r="BY3" t="n">
-        <v>#NUM!</v>
+        <v>2563.487789550637</v>
       </c>
       <c r="BZ3" t="n">
-        <v>#NUM!</v>
+        <v>3227.239921089355</v>
       </c>
       <c r="CA3" t="n">
-        <v>#NUM!</v>
+        <v>4062.854346615992</v>
       </c>
       <c r="CB3" t="n">
-        <v>#NUM!</v>
+        <v>5114.8305813732595</v>
       </c>
       <c r="CC3" t="n">
-        <v>#NUM!</v>
+        <v>6439.190195912731</v>
       </c>
       <c r="CD3" t="n">
-        <v>#NUM!</v>
+        <v>8106.460169010399</v>
       </c>
       <c r="CE3" t="n">
-        <v>#NUM!</v>
+        <v>10205.42870646443</v>
       </c>
       <c r="CF3" t="n">
-        <v>#NUM!</v>
+        <v>12847.87353682175</v>
       </c>
       <c r="CG3" t="n">
-        <v>#NUM!</v>
+        <v>16174.514483022704</v>
       </c>
       <c r="CH3" t="n">
-        <v>#NUM!</v>
+        <v>20362.507306110077</v>
       </c>
       <c r="CI3" t="n">
-        <v>#NUM!</v>
+        <v>25634.877895506368</v>
       </c>
       <c r="CJ3" t="n">
-        <v>#NUM!</v>
+        <v>32272.39921089355</v>
       </c>
       <c r="CK3" t="n">
-        <v>#NUM!</v>
+        <v>40628.54346615992</v>
       </c>
       <c r="CL3" t="n">
-        <v>#NUM!</v>
+        <v>51148.3058137326</v>
       </c>
       <c r="CM3" t="n">
-        <v>#NUM!</v>
+        <v>64391.90195912731</v>
       </c>
       <c r="CN3" t="n">
-        <v>#NUM!</v>
+        <v>81064.60169010398</v>
       </c>
     </row>
   </sheetData>
@@ -3167,280 +3167,280 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>6.439190195912731E-5</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>8.106460169010399E-5</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>1.0205428706464431E-4</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1.2847873536821748E-4</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1.6174514483022703E-4</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>2.036250730611008E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2.563487789550637E-4</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>3.227239921089355E-4</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>4.062854346615992E-4</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>5.11483058137326E-4</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>6.439190195912731E-4</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>8.106460169010399E-4</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>0.0010205428706464431</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>0.0012847873536821748</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>0.0016174514483022703</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>0.0020362507306110078</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>0.002563487789550637</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>0.003227239921089355</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>0.004062854346615992</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>0.00511483058137326</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>0.0064391901959127305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>0.008106460169010399</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>0.010205428706464431</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>0.01284787353682175</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>0.016174514483022703</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>0.02036250730611008</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>0.02563487789550637</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>0.03227239921089355</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>0.04062854346615992</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>0.0511483058137326</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>0.0643919019591273</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>0.08106460169010399</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>0.10205428706464431</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>0.1284787353682175</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>0.16174514483022703</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>0.20362507306110078</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>0.2563487789550637</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>0.3227239921089355</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>0.4062854346615992</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>0.511483058137326</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>0.6439190195912731</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>0.8106460169010399</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>1.020542870646443</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>1.2847873536821748</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>1.6174514483022704</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>2.036250730611008</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>2.5634877895506367</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>3.227239921089355</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>4.062854346615992</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>5.11483058137326</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>6.439190195912731</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>8.106460169010399</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>10.205428706464431</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>12.84787353682175</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>16.174514483022705</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>20.36250730611008</v>
       </c>
       <c r="BE3" t="n">
-        <v>#NUM!</v>
+        <v>25.63487789550637</v>
       </c>
       <c r="BF3" t="n">
-        <v>#NUM!</v>
+        <v>32.27239921089355</v>
       </c>
       <c r="BG3" t="n">
-        <v>#NUM!</v>
+        <v>40.62854346615992</v>
       </c>
       <c r="BH3" t="n">
-        <v>#NUM!</v>
+        <v>51.1483058137326</v>
       </c>
       <c r="BI3" t="n">
-        <v>#NUM!</v>
+        <v>64.39190195912731</v>
       </c>
       <c r="BJ3" t="n">
-        <v>#NUM!</v>
+        <v>81.06460169010398</v>
       </c>
       <c r="BK3" t="n">
-        <v>#NUM!</v>
+        <v>102.05428706464431</v>
       </c>
       <c r="BL3" t="n">
-        <v>#NUM!</v>
+        <v>128.47873536821749</v>
       </c>
       <c r="BM3" t="n">
-        <v>#NUM!</v>
+        <v>161.74514483022705</v>
       </c>
       <c r="BN3" t="n">
-        <v>#NUM!</v>
+        <v>203.62507306110078</v>
       </c>
       <c r="BO3" t="n">
-        <v>#NUM!</v>
+        <v>256.3487789550637</v>
       </c>
       <c r="BP3" t="n">
-        <v>#NUM!</v>
+        <v>322.72399210893553</v>
       </c>
       <c r="BQ3" t="n">
-        <v>#NUM!</v>
+        <v>406.2854346615992</v>
       </c>
       <c r="BR3" t="n">
-        <v>#NUM!</v>
+        <v>511.483058137326</v>
       </c>
       <c r="BS3" t="n">
-        <v>#NUM!</v>
+        <v>643.9190195912731</v>
       </c>
       <c r="BT3" t="n">
-        <v>#NUM!</v>
+        <v>810.6460169010398</v>
       </c>
       <c r="BU3" t="n">
-        <v>#NUM!</v>
+        <v>1020.5428706464431</v>
       </c>
       <c r="BV3" t="n">
-        <v>#NUM!</v>
+        <v>1284.7873536821749</v>
       </c>
       <c r="BW3" t="n">
-        <v>#NUM!</v>
+        <v>1617.4514483022704</v>
       </c>
       <c r="BX3" t="n">
-        <v>#NUM!</v>
+        <v>2036.2507306110078</v>
       </c>
       <c r="BY3" t="n">
-        <v>#NUM!</v>
+        <v>2563.487789550637</v>
       </c>
       <c r="BZ3" t="n">
-        <v>#NUM!</v>
+        <v>3227.239921089355</v>
       </c>
       <c r="CA3" t="n">
-        <v>#NUM!</v>
+        <v>4062.854346615992</v>
       </c>
       <c r="CB3" t="n">
-        <v>#NUM!</v>
+        <v>5114.8305813732595</v>
       </c>
       <c r="CC3" t="n">
-        <v>#NUM!</v>
+        <v>6439.190195912731</v>
       </c>
       <c r="CD3" t="n">
-        <v>#NUM!</v>
+        <v>8106.460169010399</v>
       </c>
       <c r="CE3" t="n">
-        <v>#NUM!</v>
+        <v>10205.42870646443</v>
       </c>
       <c r="CF3" t="n">
-        <v>#NUM!</v>
+        <v>12847.87353682175</v>
       </c>
       <c r="CG3" t="n">
-        <v>#NUM!</v>
+        <v>16174.514483022704</v>
       </c>
       <c r="CH3" t="n">
-        <v>#NUM!</v>
+        <v>20362.507306110077</v>
       </c>
       <c r="CI3" t="n">
-        <v>#NUM!</v>
+        <v>25634.877895506368</v>
       </c>
       <c r="CJ3" t="n">
-        <v>#NUM!</v>
+        <v>32272.39921089355</v>
       </c>
       <c r="CK3" t="n">
-        <v>#NUM!</v>
+        <v>40628.54346615992</v>
       </c>
       <c r="CL3" t="n">
-        <v>#NUM!</v>
+        <v>51148.3058137326</v>
       </c>
       <c r="CM3" t="n">
-        <v>#NUM!</v>
+        <v>64391.90195912731</v>
       </c>
       <c r="CN3" t="n">
-        <v>#NUM!</v>
+        <v>81064.60169010398</v>
       </c>
     </row>
   </sheetData>
